--- a/圖解.xlsx
+++ b/圖解.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode_workspace\puzzle\puzzle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode_workspace\puzzle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ABFFEF-5BB1-43AE-877C-9EB65822925E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D274272-BC30-4448-9FEC-E1A0A11531A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{542D7834-D0D7-4618-BAEA-4FC89C0D32CF}"/>
   </bookViews>
@@ -31,6 +31,55 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>0(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可旋轉第一解:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋轉表示:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0(0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0(2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0(3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -518,15 +567,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB8838F-8A3E-4BE1-B6A5-49887D16F757}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>4</v>
@@ -542,8 +591,16 @@
         <v>3</v>
       </c>
       <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="2">
+        <v>4</v>
+      </c>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>-2</v>
       </c>
@@ -571,8 +628,17 @@
       <c r="I2" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L2" s="4">
+        <v>-2</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7">
         <v>-1</v>
@@ -588,8 +654,13 @@
         <v>-2</v>
       </c>
       <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L3" s="6"/>
+      <c r="M3" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
         <v>1</v>
@@ -605,8 +676,13 @@
         <v>2</v>
       </c>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L4" s="1"/>
+      <c r="M4" s="2">
+        <v>3</v>
+      </c>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>-2</v>
       </c>
@@ -634,8 +710,17 @@
       <c r="I5" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L5" s="4">
+        <v>4</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7">
         <v>-4</v>
@@ -651,8 +736,13 @@
         <v>-1</v>
       </c>
       <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L6" s="6"/>
+      <c r="M6" s="7">
+        <v>-2</v>
+      </c>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
         <v>4</v>
@@ -668,8 +758,13 @@
         <v>1</v>
       </c>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L7" s="1"/>
+      <c r="M7" s="2">
+        <v>-4</v>
+      </c>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>-3</v>
       </c>
@@ -697,8 +792,17 @@
       <c r="I8" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L8" s="4">
+        <v>3</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="5">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7">
         <v>-2</v>
@@ -714,11 +818,34 @@
         <v>-2</v>
       </c>
       <c r="I9" s="8"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L9" s="6"/>
+      <c r="M9" s="7">
+        <v>4</v>
+      </c>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L10" s="1"/>
+      <c r="M10" s="2">
+        <v>-2</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L11" s="4">
+        <v>-4</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="1"/>
@@ -728,43 +855,48 @@
       <c r="F12" s="3"/>
       <c r="G12" s="1"/>
       <c r="H12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L12" s="6"/>
+      <c r="M12" s="7">
+        <v>3</v>
+      </c>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="B13" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E13" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G13" s="4">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="H13" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="6"/>
@@ -774,14 +906,14 @@
       <c r="F14" s="8"/>
       <c r="G14" s="6"/>
       <c r="H14" s="7">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="1"/>
@@ -791,16 +923,16 @@
       <c r="F15" s="3"/>
       <c r="G15" s="1"/>
       <c r="H15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>-2</v>
       </c>
       <c r="B16" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C16" s="5">
         <v>3</v>
@@ -818,10 +950,10 @@
         <v>-2</v>
       </c>
       <c r="H16" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I16" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -837,7 +969,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="6"/>
       <c r="H17" s="7">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="I17" s="8"/>
     </row>
@@ -903,6 +1035,200 @@
         <v>-2</v>
       </c>
       <c r="I20" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>4</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>-1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5">
+        <v>-4</v>
+      </c>
+      <c r="G25" s="4">
+        <v>4</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="5">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7">
+        <v>-2</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7">
+        <v>-2</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7">
+        <v>-3</v>
+      </c>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2">
+        <v>3</v>
+      </c>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>1</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5">
+        <v>-4</v>
+      </c>
+      <c r="D28" s="4">
+        <v>4</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="5">
+        <v>-2</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2</v>
+      </c>
+      <c r="H28" s="9">
+        <v>7</v>
+      </c>
+      <c r="I28" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7">
+        <v>-1</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7">
+        <v>-3</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="7">
+        <v>-4</v>
+      </c>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2">
+        <v>3</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="2">
+        <v>4</v>
+      </c>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>3</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="5">
+        <v>-2</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2</v>
+      </c>
+      <c r="E31" s="9">
+        <v>5</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="9">
+        <v>8</v>
+      </c>
+      <c r="I31" s="5">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7">
+        <v>-4</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7">
+        <v>-2</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7">
+        <v>-1</v>
+      </c>
+      <c r="I32" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
